--- a/biology/Zoologie/Incisalia/Incisalia.xlsx
+++ b/biology/Zoologie/Incisalia/Incisalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Incisalia est un genre de lépidoptères (papillons) nord-américains de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Incisalia a été décrit par l'entomologiste américain Samuel Hubbard Scudder en 1872[1]. Son espèce type est Licus niphon Hübner[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Incisalia a été décrit par l'entomologiste américain Samuel Hubbard Scudder en 1872. Son espèce type est Licus niphon Hübner.
 Le statut de ce taxon est débattu : de nombreuses sources le considèrent comme un sous-genre ou un synonyme du genre Callophrys Billberg 1820.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Incisalia  sont appelés Elfins en anglais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Incisalia  sont appelés Elfins en anglais.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Incisalia ont toutes leur aire de répartition en Amérique du Nord[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Incisalia ont toutes leur aire de répartition en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -605,17 +623,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FUNET Tree of Life  (26 juin 2020)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (26 juin 2020) :
 Incisalia augustinus (Westwood, 1852)
-Incisalia fotis (Strecker, [1878])
+Incisalia fotis (Strecker, )
 Incisalia mossii (H. Edwards, 1881)
 Incisalia polios Cook &amp; Watson, 1907
-Incisalia irus (Godart, [1824])
+Incisalia irus (Godart, )
 Incisalia henrici (Grote &amp; Robinson, 1867)
 Incisalia lanoraieensis Sheppard, 1934
-Incisalia niphon (Hübner, [1819])
+Incisalia niphon (Hübner, )
 Incisalia eryphon (Boisduval, 1852)
 			Incisalia augustinus
 			Incisalia polios
